--- a/ch7/sample_formula.xlsx
+++ b/ch7/sample_formula.xlsx
@@ -1,47 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pythonsource\ch7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="8040"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,22 +49,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -363,52 +411,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>45112.751189954637</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>45112.75105667429</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <f>SUM(1,2,3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <f>sum(1,2,3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <f>AVERAGE(1,2,3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
+        <f>average(1,2,3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
-        <f>SUM(A4:A5)</f>
-        <v>40</v>
+        <f>sum(A4:A5)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>